--- a/data/regression_name_list1.xlsx
+++ b/data/regression_name_list1.xlsx
@@ -611,7 +611,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -944,7 +944,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1508,7 +1508,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1603,7 +1603,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2596,7 +2596,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3299,7 +3299,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3340,7 +3340,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3422,7 +3422,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3463,7 +3463,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
